--- a/src/doc/页面与service对应关系1.0.xlsx
+++ b/src/doc/页面与service对应关系1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,350 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>曲线信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 章节。
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>curve_status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 章节。
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>equipment_status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 章节。
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>equipment_operation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IO状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 章节。
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>equipment_io_status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>监控-压装曲线监控</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -668,282 +324,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>为了保持和历史曲线前端展示共用代码， 将PlcEntity转换为了PressureCurveEntity对象，界面中的产品代码、最大压力、最大压力时位移都在PressureCurveEntity对象中提供
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>曲线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">信息sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 章节。
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>curve_data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Plc4xServoOperationService</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作-参数设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伺服信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">shee页中 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>章节。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>servo_operation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获取信息getDatas()
 修改信息setDatas(List&lt;PlcEntity&gt; queryList)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伺服信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">shee页中 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>限定设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>章节。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>servo_limit_set</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1239,6 +629,693 @@
   </si>
   <si>
     <t>黄色部分表示和数据库交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 章节。
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中文LABEL: 在线 ,值变量名: onLine ,值类型 BOOL
+页面中文LABEL: 运行中 ,值变量名: running ,值类型 BOOL
+页面中文LABEL: 手动操作 ,值变量名: humanModel ,值类型 BOOL
+页面中文LABEL: 自动操作 ,值变量名: autoModel ,值类型 BOOL
+页面中文LABEL: 系统报警 ,值变量名: systemAlarm ,值类型 BOOL
+页面中文LABEL: 安全报警 ,值变量名: safeAlarm ,值类型 BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>曲线信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 章节。
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curve_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中文LABEL: OK ,值变量名: ok ,值类型 BOOL
+页面中文LABEL: NOK ,值变量名: nok ,值类型 BOOL
+页面中文LABEL: 压装完成 ,值变量名: finish ,值类型 BOOL
+页面中文LABEL: 曲线记录中 ,值变量名: curveRecording ,值类型 BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 章节。
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment_operation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中文LABEL: 零件号 ,值变量名: productNo ,值类型 INT
+页面中文LABEL: 压头选择 ,值变量名: indenterChoice ,值类型 BYTE
+页面中文LABEL: 选择正压 ,值变量名: choicePositive ,值类型 BOOL
+页面中文LABEL: 选择反压 ,值变量名: choiceNegative ,值类型 BOOL
+页面中文LABEL: 光栅屏蔽 ,值变量名: rasterClose ,值类型 BOOL
+页面中文LABEL: 安全门屏蔽 ,值变量名: safeDoorClose ,值类型 BOOL
+页面中文LABEL: 蜂鸣器屏蔽 ,值变量名: buzzerClose ,值类型 BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IO状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 章节。
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment_io_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中文LABEL: 输入_0 ,值变量名: input0 ,值类型 WORD
+页面中文LABEL: 输入_1 ,值变量名: input1 ,值类型 WORD
+页面中文LABEL: 输入_2 ,值变量名: input2 ,值类型 WORD
+页面中文LABEL: 输入_3 ,值变量名: input3 ,值类型 WORD
+页面中文LABEL: 输入_4 ,值变量名: input4 ,值类型 WORD
+页面中文LABEL: 输出_0 ,值变量名: output0 ,值类型 WORD
+页面中文LABEL: 输出_1 ,值变量名: output1 ,值类型 WORD
+页面中文LABEL: 输出_2 ,值变量名: output2 ,值类型 WORD
+页面中文LABEL: 输出_3 ,值变量名: output3 ,值类型 WORD
+页面中文LABEL: 输出_4 ,值变量名: output4 ,值类型 WORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为了保持和历史曲线前端展示共用代码， 将PlcEntity转换为了PressureCurveEntity对象，界面中的产品代码、最大压力、最大压力时位移都在PressureCurveEntity对象中提供
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>曲线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">信息sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 章节。
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curve_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中文LABEL: 当前位置 ,值变量名: curPosition ,值类型 REAL
+页面中文LABEL: 当前压力 ,值变量名: curForce ,值类型 REAL
+页面中文LABEL: 当前速度 ,值变量名: curSpeed ,值类型 REAL 
+页面中文LABEL: 零件号 ,值变量名: productNo ,值类型 INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伺服信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">shee页中 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>章节。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servo_operation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中文LABEL: 机械寻零 ,值变量名: machine2Zero ,值类型 BOOL
+页面中文LABEL: 伺服使能 ,值变量名: servoEnable ,值类型 BOOL
+页面中文LABEL: 伺服停止 ,值变量名: servoStop ,值类型 BOOL
+页面中文LABEL: 返回工作原点 ,值变量名: return2Orignal ,值类型 BOOL
+页面中文LABEL: 点动上 ,值变量名: pointMoveUp ,值类型 BOOL
+页面中文LABEL: 点动下 ,值变量名: pointMoveDown ,值类型 BOOL
+页面中文LABEL: 点动速度 ,值变量名: pointMoveSpeed ,值类型 REAL
+页面中文LABEL: 单步位置 ,值变量名: setpPosition ,值类型 REAL
+页面中文LABEL: 单步速度 ,值变量名: stepSpeed ,值类型 REAL
+页面中文LABEL: 单步保护压力 ,值变量名: stepProtectforce ,值类型 REAL
+页面中文LABEL: 单步向上 ,值变量名: stepUp ,值类型 BOOL
+页面中文LABEL: 单步向下 ,值变量名: stopDown ,值类型 BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面字段中文名/输入框英文名/及字段类型,界面字段以这里列表为准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伺服信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">shee页中 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>限定设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>章节。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servo_limit_set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中文LABEL: 最大位置 ,值变量名: maxPositon ,值类型 REAL
+页面中文LABEL: 最大速度 ,值变量名: maxSpeed ,值类型 REAL
+页面中文LABEL: 最大压力 ,值变量名: maxForce ,值类型 REAL
+页面中文LABEL: 默认回零速度 ,值变量名: default2ZeroSpeed ,值类型 REAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面展示中文字段名见PPT， 以PPT为准
+值变量名见PressureProgramEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1450,25 +1527,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,6 +1539,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1489,7 +1557,16 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1786,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A31"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1800,12 +1877,13 @@
     <col min="4" max="4" width="20" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.25" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="7" max="7" width="18.25" style="6" customWidth="1"/>
+    <col min="8" max="9" width="58.25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="46.375" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" ht="27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1830,13 +1908,16 @@
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="48">
+      <c r="I1" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72">
       <c r="A2" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1855,15 +1936,18 @@
         <v>66</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="48">
+        <v>93</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="48">
       <c r="A3" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
@@ -1880,15 +1964,18 @@
         <v>66</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="48">
+        <v>95</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="84">
       <c r="A4" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="2"/>
@@ -1905,15 +1992,18 @@
         <v>66</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="48">
+        <v>97</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="120">
       <c r="A5" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="2"/>
@@ -1930,88 +2020,100 @@
         <v>66</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60">
+        <v>99</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
       <c r="A6" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>74</v>
+      <c r="B6" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="48">
+        <v>101</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="144">
       <c r="A7" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60">
+        <v>103</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60">
       <c r="A8" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>80</v>
+      <c r="B8" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="93" customHeight="1">
+        <v>106</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="93" customHeight="1">
       <c r="A9" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8"/>
@@ -2028,15 +2130,18 @@
         <v>32</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="24">
+        <v>80</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24">
       <c r="A10" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="9"/>
       <c r="D10" s="3"/>
       <c r="E10" s="7" t="s">
@@ -2049,15 +2154,16 @@
         <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="96">
+        <v>79</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="96">
       <c r="A11" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2"/>
@@ -2065,7 +2171,7 @@
         <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>11</v>
@@ -2074,18 +2180,19 @@
         <v>66</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1">
+        <v>89</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1">
       <c r="A12" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -2103,14 +2210,15 @@
       <c r="H12" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="48">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="48">
       <c r="A13" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
@@ -2126,15 +2234,16 @@
       <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="48">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="48">
       <c r="A14" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>22</v>
@@ -2151,38 +2260,40 @@
       <c r="H14" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="60">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="60">
       <c r="A15" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>90</v>
+      <c r="B15" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="36">
+        <v>87</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="36">
       <c r="A16" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3"/>
@@ -2199,15 +2310,16 @@
         <v>7</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="24">
       <c r="A17" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="8"/>
@@ -2224,13 +2336,14 @@
         <v>43</v>
       </c>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="24">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="36">
       <c r="A18" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="10"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
@@ -2241,13 +2354,14 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="24">
       <c r="A19" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="10"/>
       <c r="D19" s="3" t="s">
         <v>46</v>
@@ -2262,13 +2376,14 @@
         <v>53</v>
       </c>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="24">
       <c r="A20" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="9"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -2279,10 +2394,11 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
@@ -2292,40 +2408,43 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="48">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="48">
       <c r="A22" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="36">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="36">
       <c r="A23" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
@@ -2335,10 +2454,11 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="3"/>
@@ -2348,10 +2468,11 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
@@ -2361,10 +2482,11 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="3"/>
@@ -2374,10 +2496,11 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
@@ -2387,10 +2510,11 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
@@ -2400,10 +2524,11 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
@@ -2413,10 +2538,11 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="3"/>
@@ -2450,7 +2576,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="60">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="240">
       <c r="A1" s="3">
         <f>ROW()-1</f>
         <v>0</v>

--- a/src/doc/页面与service对应关系1.0.xlsx
+++ b/src/doc/页面与service对应关系1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报警窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>历史报警窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,41 +67,6 @@
   </si>
   <si>
     <t>public List&lt;HisAlarmEntity&gt; getHisAlarm()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PressureCurveService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PressureCurveEntity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取实时压力曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要增加一个页面， 展示实时压力曲线信息。 界面同历史压力曲线， 不需要查询相关功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取历史压装曲线
-页面输入产品代码， 查询历史压力曲线信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;PressureCurveEntity&gt; getHisDateByCode(Long  productCode)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;PressureCurveEntity&gt; getcurrDate()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">X轴是时间：pressDate date类型（类型可以考虑更换）
-Y轴是压力值：pressForce
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -132,35 +93,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品压装程序设置页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力位移曲线（展示chart）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> PressureProgramService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;PressureProgramEntity&gt; getWithProductId(Long productId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询压装程序，用于字段展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PressureProgramEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改压装程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save(PressureProgramEntity entity)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -212,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserRoleService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UserRoleEntity getUserRole(long roleId)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,22 +177,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plc4xCurveDataService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>监控-设备状态监控</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plc4xEquipmentAlarmService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc4xEquipmentIoStatusService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getDatas()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,23 +209,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plc4xEquipmentStatusService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;PlcEntity&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取服务器上实时信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc4xCurveStatusService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>监控-安全监控-操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控-压装曲线监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为了保持和历史曲线前端展示共用代码， 将PlcEntity转换为了PressureCurveEntity对象，界面中的产品代码、最大压力、最大压力时位移都在PressureCurveEntity对象中提供
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>曲线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">信息sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 章节。
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curve_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的数据</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -321,448 +308,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>曲线信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 章节。
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>curve_status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 章节。
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>equipment_status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 章节。
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>equipment_operation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IO状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 章节。
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>equipment_io_status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控-压装曲线监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取服务器上实时压装曲线信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCurveDatas()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;PressureCurveEntity&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>为了保持和历史曲线前端展示共用代码， 将PlcEntity转换为了PressureCurveEntity对象，界面中的产品代码、最大压力、最大压力时位移都在PressureCurveEntity对象中提供
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>曲线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">信息sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 章节。
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>curve_data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc4xServoOperationService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作-参数设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>伺服信息</t>
     </r>
     <r>
@@ -785,7 +330,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>操作</t>
+      <t>限定设置</t>
     </r>
     <r>
       <rPr>
@@ -818,7 +363,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>servo_operation</t>
+      <t>servo_limit_set</t>
     </r>
     <r>
       <rPr>
@@ -843,115 +388,6 @@
       </rPr>
       <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取信息getDatas()
-修改信息setDatas(List&lt;PlcEntity&gt; queryList)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
-字段描述参考《HMI交互数据20200312.xls》中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伺服信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">shee页中 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>限定设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>章节。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-或者tags_info表中 tag_group为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>servo_limit_set</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plc4xServoLimitSetService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时获取及修改服务器上参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1098,10 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>压力位移曲线（左侧展示字段）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>压装历史统计数据查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1126,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;PlcEntity&gt; getDatas()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
 字段描述参考《HMI交互数据20200312.xls》中</t>
@@ -1239,6 +667,624 @@
   </si>
   <si>
     <t>黄色部分表示和数据库交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserRoleService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>曲线信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 章节。
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curve_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力位移曲线（展示chart）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取历史压装曲线
+页面输入产品代码， 查询历史压力曲线信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力位移曲线（左侧展示字段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;PressureCurveEntity&gt; getcurrDate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要增加一个页面， 展示实时压力曲线信息。 界面同历史压力曲线， 不需要查询相关功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc4xCurveDataService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">X轴是时间：pressDate date类型（类型可以考虑更换）
+Y轴是压力值：pressForce
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PressureCurveEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PressureCurveService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;PressureCurveEntity&gt; getHisDateByCode(Long  productCode)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc4xEquipmentStatusService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDatas()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取服务器上实时信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 章节。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者tags_info表中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc4xCurveStatusService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDatas()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;PlcEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IO状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 章节。
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment_io_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc4xEquipmentIoStatusService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;PressureCurveEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc4xServoOperationService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取信息getDatas()
+修改信息setDatas(List&lt;PlcEntity&gt; queryList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc4xCurveDataService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCurveDatas()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时获取及修改服务器上参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伺服信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">shee页中 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>章节。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servo_operation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作-参数设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc4xServoLimitSetService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> PressureProgramService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;PressureProgramEntity&gt; getWithProductId(Long productId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品压装程序设置页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;PlcEntity&gt; getDatas()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取实时压力曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PressureCurveEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save(PressureProgramEntity entity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询压装程序，用于字段展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc4xEquipmentAlarmService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 章节。
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment_operation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;PlcEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取服务器上实时压装曲线信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,7 +1292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,6 +1352,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1450,25 +1504,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,6 +1516,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1489,7 +1534,16 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1788,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1813,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1831,458 +1885,458 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48">
+    <row r="2" spans="1:8" ht="50.25">
       <c r="A2" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>55</v>
+      <c r="B2" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48">
       <c r="A3" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="48">
       <c r="A4" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>69</v>
+      <c r="B4" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48">
       <c r="A5" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>59</v>
+      <c r="B5" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60">
       <c r="A6" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>74</v>
+      <c r="B6" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="48">
       <c r="A7" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>61</v>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
       <c r="A8" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>80</v>
+      <c r="B8" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="93" customHeight="1">
       <c r="A9" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>27</v>
+      <c r="B9" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24">
       <c r="A10" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="9"/>
       <c r="D10" s="3"/>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="96">
       <c r="A11" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>8</v>
+      <c r="B11" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1">
       <c r="A12" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>28</v>
+      <c r="B12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="48">
       <c r="A13" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="48">
       <c r="A14" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="60">
       <c r="A15" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>90</v>
+      <c r="B15" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="36">
       <c r="A16" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>9</v>
+      <c r="B16" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="24">
       <c r="A17" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>42</v>
+      <c r="B17" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="24">
+    <row r="18" spans="1:8" ht="36">
       <c r="A18" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="10"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="10"/>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="24">
       <c r="A20" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="9"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
@@ -2295,12 +2349,12 @@
     </row>
     <row r="22" spans="1:8" ht="48">
       <c r="A22" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2310,12 +2364,12 @@
     </row>
     <row r="23" spans="1:8" ht="36">
       <c r="A23" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2325,7 +2379,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
@@ -2338,7 +2392,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="3"/>
@@ -2351,7 +2405,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
@@ -2364,7 +2418,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="3"/>
@@ -2377,7 +2431,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
@@ -2390,7 +2444,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
@@ -2403,7 +2457,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
@@ -2416,7 +2470,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="3"/>
@@ -2450,29 +2504,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="60">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="240">
       <c r="A1" s="3">
         <f>ROW()-1</f>
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/doc/页面与service对应关系1.0.xlsx
+++ b/src/doc/页面与service对应关系1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,14 +309,6 @@
   </si>
   <si>
     <t>监控-压装曲线监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取服务器上实时压装曲线信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCurveDatas()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -718,15 +710,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面中文LABEL: 在线 ,值变量名: onLine ,值类型 BOOL
-页面中文LABEL: 运行中 ,值变量名: running ,值类型 BOOL
-页面中文LABEL: 手动操作 ,值变量名: humanModel ,值类型 BOOL
-页面中文LABEL: 自动操作 ,值变量名: autoModel ,值类型 BOOL
-页面中文LABEL: 系统报警 ,值变量名: systemAlarm ,值类型 BOOL
-页面中文LABEL: 安全报警 ,值变量名: safeAlarm ,值类型 BOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
 字段描述参考《HMI交互数据20200312.xls》中</t>
@@ -1086,13 +1069,6 @@
       </rPr>
       <t>的数据</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面中文LABEL: 当前位置 ,值变量名: curPosition ,值类型 REAL
-页面中文LABEL: 当前压力 ,值变量名: curForce ,值类型 REAL
-页面中文LABEL: 当前速度 ,值变量名: curSpeed ,值类型 REAL 
-页面中文LABEL: 零件号 ,值变量名: productNo ,值类型 INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1316,6 +1292,56 @@
   <si>
     <t>页面展示中文字段名见PPT， 以PPT为准
 值变量名见PressureProgramEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中文LABEL: 在线 ,值变量名: onLine ,值类型 BOOL
+页面中文LABEL: 运行中 ,值变量名: running ,值类型 BOOL
+页面中文LABEL: 手动操作 ,值变量名: humanModel ,值类型 BOOL
+页面中文LABEL: 自动操作 ,值变量名: autoModel ,值类型 BOOL
+页面中文LABEL: 系统报警 ,值变量名: systemAlarm ,值类型 BOOL
+页面中文LABEL: 安全报警 ,值变量名: safeAlarm ,值类型 BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中文LABEL: 当前位置 ,值变量名: curPosition ,值类型 REAL
+页面中文LABEL: 当前压力 ,值变量名: curForce ,值类型 REAL
+页面中文LABEL: 当前速度 ,值变量名: curSpeed ,值类型 REAL 
+页面中文LABEL: 零件号 ,值变量名: productNo ,值类型 INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plc4xCurveDataService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老接口getCurveDatas()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新接口getCurveDatas()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取服务器上实时压装曲线信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取服务器上实时压装曲线信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  List&lt;List&lt;PressureCurveEntity&gt;&gt; getCurveDatasAndErrand() {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PressureCurveEntity类中添加字段：
+isErrant：是否是公差曲线， 为true时用黑色线paint，为false时，用蓝色线paint 
+isSolidLine 是否是实线， 如果是false， 需要画为虚线。 只有是公差曲线即isErrant=true时，才可能是false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1493,7 +1519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1567,6 +1593,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1863,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1909,12 +1941,12 @@
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72">
       <c r="A2" s="2">
-        <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A32" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -1936,10 +1968,10 @@
         <v>66</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48">
@@ -1964,10 +1996,10 @@
         <v>66</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="84">
@@ -1992,10 +2024,10 @@
         <v>66</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="120">
@@ -2020,361 +2052,362 @@
         <v>66</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
-      <c r="A6" s="2">
+      <c r="A6" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="25" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="144">
-      <c r="A7" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="144">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60">
-      <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="93" customHeight="1">
-      <c r="A9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="93" customHeight="1">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="3" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="24">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="96">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="96">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="48">
-      <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="48">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="60">
-      <c r="A15" s="2">
+    <row r="15" spans="1:9" ht="48">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="60">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="36">
-      <c r="A16" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="36">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="24">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="H17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="24">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="3" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="36">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="24">
+    <row r="19" spans="1:9" ht="36">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
@@ -2383,42 +2416,48 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="24">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="48">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2426,14 +2465,14 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="36">
+    <row r="23" spans="1:9" ht="48">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2442,13 +2481,15 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="36">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2471,7 +2512,7 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2481,8 +2522,8 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
@@ -2551,13 +2592,29 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B17:B20"/>
+  <mergeCells count="7">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/doc/页面与service对应关系1.0.xlsx
+++ b/src/doc/页面与service对应关系1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,6 +1342,208 @@
   </si>
   <si>
     <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PressureCurveEntity getCurrentCurve()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PressureCurveEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示信息为对象为PlcEntity对象中的 字段名name 字段值valueOjb
+字段描述参考《HMI交互数据20200312.xls》中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>曲线信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 章节。
+或者tags_info表中 tag_group为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curve_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>界面中需要展示的字段以excel中字段为准， ppt中不一定全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中文LABEL: 当前位置,值变量名: position,值类型 BIGDECIMAL
+页面中文LABEL: 当前压力,值变量名: pressForce,值类型 BIGDECIMAL
+页面中文LABEL: 当前速度,值变量名: curSpeed,值类型 BIGDECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipmentStatusMonitoring.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safetyMonitoring.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>展示的值不一定用radio，换成可以显示为红色或者绿色的组件， 可以不是圆形的，但是要是纯色的且足够大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。 现在是true就是选中，否则就是不选中， 不行的。
+2.要横排，每行三个， 不能全竖排</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.只显示了字段名， 没有显示字段值， 字段值显示要求也是同1.1中红字要求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>展示的值不一定用radio，换成可以显示为红色或者绿色的组件， 可以不是圆形的，但是要是纯色的且足够大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.页面右上角有个色块，把页面覆盖了一部分</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ioEquipmentStatusMonitoring.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.值对应的框加长一点，现在字段有6位时显示不全 
+2. 输入框要不能编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线上的每个点的数值lable要去掉，不显示label， 点很多很密集时，label完全无法识别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个页面需要按照PPT的界面做， 现在这样不行的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.现在一个数值就是要给大的tr， 要做成小色块， 而且需要根据数据值显示不同颜色， true时下你是绿色，false时显示灰色。
+2. 除了正确的10个字段， 还显示了10行
+[ false, false, false, false, false, false, false, false, false, false, false, false, false, false, false, false ] 不知道为什么， 不应该有这些数据。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1519,7 +1721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,6 +1776,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1593,12 +1807,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1895,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1906,16 +2114,18 @@
     <col min="1" max="1" width="5.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="6" customWidth="1"/>
-    <col min="8" max="9" width="58.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="46.375" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="6"/>
+    <col min="4" max="4" width="34.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.25" style="6" customWidth="1"/>
+    <col min="10" max="11" width="58.25" style="6" customWidth="1"/>
+    <col min="12" max="12" width="46.375" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
+    <row r="1" spans="1:11" ht="27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1926,83 +2136,101 @@
         <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72">
+    <row r="2" spans="1:11" ht="72">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A32" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48">
+    <row r="3" spans="1:11" ht="48">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>58</v>
+      <c r="D3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="84">
+        <v>117</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="84">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2011,26 +2239,32 @@
         <v>69</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="120">
+    <row r="5" spans="1:11" ht="120">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2039,77 +2273,89 @@
         <v>59</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="60">
-      <c r="A6" s="25">
+    <row r="6" spans="1:11" ht="60">
+      <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+    <row r="7" spans="1:11" ht="60">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="144">
+    <row r="8" spans="1:11" ht="144">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2118,26 +2364,30 @@
         <v>61</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="60">
+    <row r="9" spans="1:11" ht="60">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2146,74 +2396,84 @@
         <v>73</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="93" customHeight="1">
+    <row r="10" spans="1:11" ht="93" customHeight="1">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24">
+    <row r="11" spans="1:11" ht="24">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="96">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="96">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2222,102 +2482,116 @@
         <v>8</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="24" customHeight="1">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="48">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="48">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="48">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="48">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="60">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="60">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2326,24 +2600,28 @@
         <v>81</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="36">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="36">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2353,105 +2631,119 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="24">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="24">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="36">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="36">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="24">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="24">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="24">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="24">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2464,8 +2756,10 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="48">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="48">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2474,14 +2768,18 @@
       <c r="C23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="36">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="36">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2490,14 +2788,18 @@
       <c r="C24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2510,8 +2812,10 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2524,8 +2828,10 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2536,10 +2842,12 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2550,10 +2858,12 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2564,10 +2874,12 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2578,10 +2890,12 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2592,10 +2906,12 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2606,16 +2922,18 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2625,15 +2943,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="240">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="240">
       <c r="A1" s="3">
         <f>ROW()-1</f>
         <v>0</v>
@@ -2656,6 +2974,35 @@
       </c>
       <c r="H1" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="48">
+      <c r="A5" s="2">
+        <f t="shared" ref="A5" si="0">ROW()-1</f>
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
